--- a/src/Python_Files/data_files/Hospital_Data.xlsx
+++ b/src/Python_Files/data_files/Hospital_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Spring_2022\G1\src\Python_Files\data_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Medical_Project\Medical-Transparency\src\Python_Files\data_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50B20932-FCD9-42E4-A5B4-F5E4CEF91F09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C852847-55D7-4CCD-B03B-FA068B1C1E64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{EA59E9A6-90DB-4C1F-8228-F4195F152102}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{EA59E9A6-90DB-4C1F-8228-F4195F152102}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="352">
   <si>
     <t>City</t>
   </si>
@@ -1082,9 +1082,6 @@
   </si>
   <si>
     <t>.csv</t>
-  </si>
-  <si>
-    <t>duplicate?</t>
   </si>
   <si>
     <t>WEBSITE Homepage</t>
@@ -1811,18 +1808,18 @@
       <selection activeCell="A8" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.88671875" customWidth="1"/>
-    <col min="2" max="2" width="36.44140625" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="2" max="2" width="36.42578125" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
-    <col min="5" max="5" width="44.6640625" customWidth="1"/>
-    <col min="6" max="6" width="6.33203125" customWidth="1"/>
-    <col min="7" max="7" width="43.88671875" customWidth="1"/>
+    <col min="5" max="5" width="44.7109375" customWidth="1"/>
+    <col min="6" max="6" width="6.28515625" customWidth="1"/>
+    <col min="7" max="7" width="43.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1845,7 +1842,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
@@ -1868,7 +1865,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>13</v>
       </c>
@@ -1891,7 +1888,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>18</v>
       </c>
@@ -1914,7 +1911,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>22</v>
       </c>
@@ -1937,7 +1934,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>26</v>
       </c>
@@ -1960,7 +1957,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>30</v>
       </c>
@@ -1983,7 +1980,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>34</v>
       </c>
@@ -2006,7 +2003,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="120" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>38</v>
       </c>
@@ -2029,7 +2026,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="120" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>42</v>
       </c>
@@ -2052,7 +2049,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="120" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>46</v>
       </c>
@@ -2075,7 +2072,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="120" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>50</v>
       </c>
@@ -2098,7 +2095,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="120" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>54</v>
       </c>
@@ -2121,7 +2118,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="120" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>58</v>
       </c>
@@ -2144,7 +2141,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="90" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>22</v>
       </c>
@@ -2167,7 +2164,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="120" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>67</v>
       </c>
@@ -2190,7 +2187,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="120" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>71</v>
       </c>
@@ -2213,7 +2210,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="120" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>71</v>
       </c>
@@ -2236,7 +2233,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="120" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>78</v>
       </c>
@@ -2259,7 +2256,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="120" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>82</v>
       </c>
@@ -2282,7 +2279,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="120" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>86</v>
       </c>
@@ -2305,7 +2302,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="120" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>18</v>
       </c>
@@ -2328,7 +2325,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="120" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>67</v>
       </c>
@@ -2351,7 +2348,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="165" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>98</v>
       </c>
@@ -2374,7 +2371,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="120" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>104</v>
       </c>
@@ -2397,7 +2394,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="120" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>108</v>
       </c>
@@ -2420,7 +2417,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="120" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>112</v>
       </c>
@@ -2443,7 +2440,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="120" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>116</v>
       </c>
@@ -2466,7 +2463,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="120" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>120</v>
       </c>
@@ -2489,7 +2486,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="120" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>124</v>
       </c>
@@ -2512,7 +2509,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="120" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>128</v>
       </c>
@@ -2535,7 +2532,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="120" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>132</v>
       </c>
@@ -2558,7 +2555,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="120" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>136</v>
       </c>
@@ -2581,7 +2578,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="120" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>140</v>
       </c>
@@ -2604,7 +2601,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="120" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>144</v>
       </c>
@@ -2627,7 +2624,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="120" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>98</v>
       </c>
@@ -2650,7 +2647,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="120" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>18</v>
       </c>
@@ -2673,7 +2670,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="120" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>153</v>
       </c>
@@ -2696,7 +2693,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="120" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>157</v>
       </c>
@@ -2719,7 +2716,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="120" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>161</v>
       </c>
@@ -2742,7 +2739,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="120" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
         <v>165</v>
       </c>
@@ -2765,7 +2762,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="120" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
         <v>169</v>
       </c>
@@ -2788,7 +2785,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="120" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
         <v>173</v>
       </c>
@@ -2811,7 +2808,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="120" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
         <v>177</v>
       </c>
@@ -2834,7 +2831,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="120" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
         <v>82</v>
       </c>
@@ -2857,7 +2854,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="120" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
         <v>183</v>
       </c>
@@ -2880,7 +2877,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="120" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
         <v>187</v>
       </c>
@@ -2903,7 +2900,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="120" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
         <v>191</v>
       </c>
@@ -2926,7 +2923,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="120" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
         <v>195</v>
       </c>
@@ -2949,7 +2946,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="120" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
         <v>199</v>
       </c>
@@ -2972,7 +2969,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="120" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
         <v>203</v>
       </c>
@@ -2995,7 +2992,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="120" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
         <v>208</v>
       </c>
@@ -3018,7 +3015,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="120" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
         <v>212</v>
       </c>
@@ -3041,7 +3038,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="120" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
         <v>216</v>
       </c>
@@ -3064,7 +3061,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="120" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
         <v>220</v>
       </c>
@@ -3087,7 +3084,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="120" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
         <v>224</v>
       </c>
@@ -3110,7 +3107,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="120" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
         <v>228</v>
       </c>
@@ -3133,7 +3130,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="120" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
         <v>232</v>
       </c>
@@ -3156,7 +3153,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="120" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
         <v>236</v>
       </c>
@@ -3179,7 +3176,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="120" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
         <v>240</v>
       </c>
@@ -3202,7 +3199,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="120" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
         <v>244</v>
       </c>
@@ -3225,7 +3222,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="120" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
         <v>248</v>
       </c>
@@ -3248,7 +3245,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="120" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
         <v>252</v>
       </c>
@@ -3271,7 +3268,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="120" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
         <v>256</v>
       </c>
@@ -3294,7 +3291,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="120" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
         <v>260</v>
       </c>
@@ -3317,7 +3314,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="120" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
         <v>263</v>
       </c>
@@ -3340,7 +3337,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="120" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
         <v>98</v>
       </c>
@@ -3363,7 +3360,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="120" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
         <v>153</v>
       </c>
@@ -3386,7 +3383,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="120" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
         <v>273</v>
       </c>
@@ -3409,7 +3406,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="120.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="10" t="s">
         <v>277</v>
       </c>
@@ -3442,24 +3439,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9A968CA-597E-42CB-9D6B-E9A807DD61B3}">
   <dimension ref="A1:M70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.109375" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="24.21875" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" customWidth="1"/>
     <col min="4" max="4" width="32" customWidth="1"/>
-    <col min="5" max="6" width="74.6640625" customWidth="1"/>
-    <col min="7" max="8" width="13.33203125" customWidth="1"/>
-    <col min="9" max="9" width="21.5546875" customWidth="1"/>
-    <col min="10" max="10" width="60.88671875" customWidth="1"/>
-    <col min="11" max="11" width="15.5546875" customWidth="1"/>
+    <col min="5" max="6" width="74.7109375" customWidth="1"/>
+    <col min="7" max="8" width="13.28515625" customWidth="1"/>
+    <col min="9" max="9" width="21.5703125" customWidth="1"/>
+    <col min="10" max="10" width="60.85546875" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -3473,16 +3470,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="21" t="s">
+        <v>349</v>
+      </c>
+      <c r="F1" s="21" t="s">
         <v>350</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>351</v>
       </c>
       <c r="G1" s="21" t="s">
         <v>346</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I1" s="21" t="s">
         <v>5</v>
@@ -3491,7 +3488,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>7</v>
       </c>
@@ -3519,7 +3516,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>13</v>
       </c>
@@ -3545,7 +3542,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>18</v>
       </c>
@@ -3573,7 +3570,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>22</v>
       </c>
@@ -3601,7 +3598,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>26</v>
       </c>
@@ -3629,7 +3626,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>30</v>
       </c>
@@ -3657,7 +3654,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>34</v>
       </c>
@@ -3683,7 +3680,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>38</v>
       </c>
@@ -3711,7 +3708,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>42</v>
       </c>
@@ -3739,7 +3736,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>46</v>
       </c>
@@ -3767,7 +3764,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>50</v>
       </c>
@@ -3795,7 +3792,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>54</v>
       </c>
@@ -3823,7 +3820,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>58</v>
       </c>
@@ -3851,7 +3848,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>22</v>
       </c>
@@ -3879,7 +3876,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>67</v>
       </c>
@@ -3907,7 +3904,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>71</v>
       </c>
@@ -3935,7 +3932,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>71</v>
       </c>
@@ -3961,7 +3958,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>78</v>
       </c>
@@ -3987,7 +3984,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>82</v>
       </c>
@@ -4013,7 +4010,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>86</v>
       </c>
@@ -4041,7 +4038,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>18</v>
       </c>
@@ -4058,9 +4055,7 @@
         <v>300</v>
       </c>
       <c r="F22" s="23"/>
-      <c r="G22" s="25" t="s">
-        <v>349</v>
-      </c>
+      <c r="G22" s="25"/>
       <c r="H22" s="25"/>
       <c r="I22" s="15">
         <v>85</v>
@@ -4069,7 +4064,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>67</v>
       </c>
@@ -4095,7 +4090,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>98</v>
       </c>
@@ -4123,7 +4118,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>104</v>
       </c>
@@ -4151,7 +4146,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>108</v>
       </c>
@@ -4179,7 +4174,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>112</v>
       </c>
@@ -4205,7 +4200,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>116</v>
       </c>
@@ -4231,7 +4226,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>120</v>
       </c>
@@ -4259,7 +4254,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>124</v>
       </c>
@@ -4287,7 +4282,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>128</v>
       </c>
@@ -4315,7 +4310,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>132</v>
       </c>
@@ -4343,7 +4338,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
         <v>136</v>
       </c>
@@ -4371,7 +4366,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>140</v>
       </c>
@@ -4399,7 +4394,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>144</v>
       </c>
@@ -4427,7 +4422,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
         <v>98</v>
       </c>
@@ -4455,7 +4450,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
         <v>18</v>
       </c>
@@ -4481,7 +4476,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
         <v>153</v>
       </c>
@@ -4507,7 +4502,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
         <v>157</v>
       </c>
@@ -4533,7 +4528,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
         <v>161</v>
       </c>
@@ -4559,7 +4554,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
         <v>165</v>
       </c>
@@ -4587,7 +4582,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
         <v>169</v>
       </c>
@@ -4615,7 +4610,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
         <v>173</v>
       </c>
@@ -4641,7 +4636,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
         <v>177</v>
       </c>
@@ -4667,7 +4662,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
         <v>82</v>
       </c>
@@ -4695,7 +4690,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
         <v>183</v>
       </c>
@@ -4721,7 +4716,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
         <v>187</v>
       </c>
@@ -4747,7 +4742,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
         <v>191</v>
       </c>
@@ -4773,7 +4768,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
         <v>195</v>
       </c>
@@ -4799,7 +4794,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
         <v>199</v>
       </c>
@@ -4825,7 +4820,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
         <v>203</v>
       </c>
@@ -4851,7 +4846,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
         <v>208</v>
       </c>
@@ -4877,7 +4872,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
         <v>212</v>
       </c>
@@ -4903,7 +4898,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="14" t="s">
         <v>216</v>
       </c>
@@ -4929,7 +4924,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="14" t="s">
         <v>220</v>
       </c>
@@ -4956,7 +4951,7 @@
       </c>
       <c r="M55" s="13"/>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
         <v>224</v>
       </c>
@@ -4982,7 +4977,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
         <v>228</v>
       </c>
@@ -5008,7 +5003,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="s">
         <v>232</v>
       </c>
@@ -5034,7 +5029,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="14" t="s">
         <v>236</v>
       </c>
@@ -5060,7 +5055,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="14" t="s">
         <v>240</v>
       </c>
@@ -5086,7 +5081,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="14" t="s">
         <v>244</v>
       </c>
@@ -5112,7 +5107,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="14" t="s">
         <v>248</v>
       </c>
@@ -5138,7 +5133,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="14" t="s">
         <v>252</v>
       </c>
@@ -5164,7 +5159,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="14" t="s">
         <v>256</v>
       </c>
@@ -5190,7 +5185,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="14" t="s">
         <v>260</v>
       </c>
@@ -5216,7 +5211,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="14" t="s">
         <v>263</v>
       </c>
@@ -5242,7 +5237,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
         <v>98</v>
       </c>
@@ -5270,7 +5265,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="14" t="s">
         <v>153</v>
       </c>
@@ -5296,7 +5291,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="14" t="s">
         <v>273</v>
       </c>
@@ -5322,7 +5317,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="17" t="s">
         <v>277</v>
       </c>

--- a/src/Python_Files/data_files/Hospital_Data.xlsx
+++ b/src/Python_Files/data_files/Hospital_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Medical_Project\Medical-Transparency\src\Python_Files\data_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\epicp\Documents\GitHub\G1\src\Python_Files\data_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C852847-55D7-4CCD-B03B-FA068B1C1E64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{629DC6FB-4312-43E7-A8B4-75815A0F3807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{EA59E9A6-90DB-4C1F-8228-F4195F152102}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{EA59E9A6-90DB-4C1F-8228-F4195F152102}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="357">
   <si>
     <t>City</t>
   </si>
@@ -1091,6 +1091,21 @@
   </si>
   <si>
     <t>Insurance Info</t>
+  </si>
+  <si>
+    <t>.html</t>
+  </si>
+  <si>
+    <t>.pdf / .html</t>
+  </si>
+  <si>
+    <t>.json</t>
+  </si>
+  <si>
+    <t>.pdf</t>
+  </si>
+  <si>
+    <t>.xls</t>
   </si>
 </sst>
 </file>
@@ -1805,21 +1820,21 @@
   <dimension ref="A1:G70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A1:XFD1048576"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1"/>
-    <col min="2" max="2" width="36.42578125" customWidth="1"/>
+    <col min="1" max="1" width="18.81640625" customWidth="1"/>
+    <col min="2" max="2" width="36.453125" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
-    <col min="5" max="5" width="44.7109375" customWidth="1"/>
-    <col min="6" max="6" width="6.28515625" customWidth="1"/>
-    <col min="7" max="7" width="43.85546875" customWidth="1"/>
+    <col min="5" max="5" width="44.7265625" customWidth="1"/>
+    <col min="6" max="6" width="6.26953125" customWidth="1"/>
+    <col min="7" max="7" width="43.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1842,7 +1857,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
@@ -1865,7 +1880,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="24.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>13</v>
       </c>
@@ -1888,7 +1903,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>18</v>
       </c>
@@ -1911,7 +1926,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>22</v>
       </c>
@@ -1934,7 +1949,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="37.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>26</v>
       </c>
@@ -1957,7 +1972,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>30</v>
       </c>
@@ -1980,7 +1995,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
         <v>34</v>
       </c>
@@ -2003,7 +2018,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="16" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
         <v>38</v>
       </c>
@@ -2026,7 +2041,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>42</v>
       </c>
@@ -2049,7 +2064,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="16" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
         <v>46</v>
       </c>
@@ -2072,7 +2087,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="16" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
         <v>50</v>
       </c>
@@ -2095,7 +2110,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="16" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
         <v>54</v>
       </c>
@@ -2118,7 +2133,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="32" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
         <v>58</v>
       </c>
@@ -2141,7 +2156,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="16" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
         <v>22</v>
       </c>
@@ -2164,7 +2179,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="16" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
         <v>67</v>
       </c>
@@ -2187,7 +2202,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="16" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
         <v>71</v>
       </c>
@@ -2210,7 +2225,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="32" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
         <v>71</v>
       </c>
@@ -2233,7 +2248,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="32" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
         <v>78</v>
       </c>
@@ -2256,7 +2271,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.35">
       <c r="A20" s="8" t="s">
         <v>82</v>
       </c>
@@ -2279,7 +2294,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.35">
       <c r="A21" s="8" t="s">
         <v>86</v>
       </c>
@@ -2302,7 +2317,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
         <v>18</v>
       </c>
@@ -2325,7 +2340,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="16" x14ac:dyDescent="0.35">
       <c r="A23" s="8" t="s">
         <v>67</v>
       </c>
@@ -2348,7 +2363,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="32" x14ac:dyDescent="0.35">
       <c r="A24" s="8" t="s">
         <v>98</v>
       </c>
@@ -2371,7 +2386,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="16" x14ac:dyDescent="0.35">
       <c r="A25" s="8" t="s">
         <v>104</v>
       </c>
@@ -2394,7 +2409,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="16" x14ac:dyDescent="0.35">
       <c r="A26" s="8" t="s">
         <v>108</v>
       </c>
@@ -2417,7 +2432,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="32" x14ac:dyDescent="0.35">
       <c r="A27" s="8" t="s">
         <v>112</v>
       </c>
@@ -2440,7 +2455,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="16" x14ac:dyDescent="0.35">
       <c r="A28" s="8" t="s">
         <v>116</v>
       </c>
@@ -2463,7 +2478,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="16" x14ac:dyDescent="0.35">
       <c r="A29" s="8" t="s">
         <v>120</v>
       </c>
@@ -2486,7 +2501,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="16" x14ac:dyDescent="0.35">
       <c r="A30" s="8" t="s">
         <v>124</v>
       </c>
@@ -2509,7 +2524,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="16" x14ac:dyDescent="0.35">
       <c r="A31" s="8" t="s">
         <v>128</v>
       </c>
@@ -2532,7 +2547,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="16" x14ac:dyDescent="0.35">
       <c r="A32" s="8" t="s">
         <v>132</v>
       </c>
@@ -2555,7 +2570,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="16" x14ac:dyDescent="0.35">
       <c r="A33" s="8" t="s">
         <v>136</v>
       </c>
@@ -2578,7 +2593,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="16" x14ac:dyDescent="0.35">
       <c r="A34" s="8" t="s">
         <v>140</v>
       </c>
@@ -2601,7 +2616,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="16" x14ac:dyDescent="0.35">
       <c r="A35" s="8" t="s">
         <v>144</v>
       </c>
@@ -2624,7 +2639,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="16" x14ac:dyDescent="0.35">
       <c r="A36" s="8" t="s">
         <v>98</v>
       </c>
@@ -2647,7 +2662,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="16" x14ac:dyDescent="0.35">
       <c r="A37" s="8" t="s">
         <v>18</v>
       </c>
@@ -2670,7 +2685,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="16" x14ac:dyDescent="0.35">
       <c r="A38" s="8" t="s">
         <v>153</v>
       </c>
@@ -2693,7 +2708,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="16" x14ac:dyDescent="0.35">
       <c r="A39" s="8" t="s">
         <v>157</v>
       </c>
@@ -2716,7 +2731,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="16" x14ac:dyDescent="0.35">
       <c r="A40" s="8" t="s">
         <v>161</v>
       </c>
@@ -2739,7 +2754,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="16" x14ac:dyDescent="0.35">
       <c r="A41" s="8" t="s">
         <v>165</v>
       </c>
@@ -2762,7 +2777,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="16" x14ac:dyDescent="0.35">
       <c r="A42" s="8" t="s">
         <v>169</v>
       </c>
@@ -2785,7 +2800,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="32" x14ac:dyDescent="0.35">
       <c r="A43" s="8" t="s">
         <v>173</v>
       </c>
@@ -2808,7 +2823,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="16" x14ac:dyDescent="0.35">
       <c r="A44" s="8" t="s">
         <v>177</v>
       </c>
@@ -2831,7 +2846,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="16" x14ac:dyDescent="0.35">
       <c r="A45" s="8" t="s">
         <v>82</v>
       </c>
@@ -2854,7 +2869,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="32" x14ac:dyDescent="0.35">
       <c r="A46" s="8" t="s">
         <v>183</v>
       </c>
@@ -2877,7 +2892,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="16" x14ac:dyDescent="0.35">
       <c r="A47" s="8" t="s">
         <v>187</v>
       </c>
@@ -2900,7 +2915,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="16" x14ac:dyDescent="0.35">
       <c r="A48" s="8" t="s">
         <v>191</v>
       </c>
@@ -2923,7 +2938,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="16" x14ac:dyDescent="0.35">
       <c r="A49" s="8" t="s">
         <v>195</v>
       </c>
@@ -2946,7 +2961,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="32" x14ac:dyDescent="0.35">
       <c r="A50" s="8" t="s">
         <v>199</v>
       </c>
@@ -2969,7 +2984,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="32" x14ac:dyDescent="0.35">
       <c r="A51" s="8" t="s">
         <v>203</v>
       </c>
@@ -2992,7 +3007,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="16" x14ac:dyDescent="0.35">
       <c r="A52" s="8" t="s">
         <v>208</v>
       </c>
@@ -3015,7 +3030,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="16" x14ac:dyDescent="0.35">
       <c r="A53" s="8" t="s">
         <v>212</v>
       </c>
@@ -3038,7 +3053,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="16" x14ac:dyDescent="0.35">
       <c r="A54" s="8" t="s">
         <v>216</v>
       </c>
@@ -3061,7 +3076,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="16" x14ac:dyDescent="0.35">
       <c r="A55" s="8" t="s">
         <v>220</v>
       </c>
@@ -3084,7 +3099,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="16" x14ac:dyDescent="0.35">
       <c r="A56" s="8" t="s">
         <v>224</v>
       </c>
@@ -3107,7 +3122,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="16" x14ac:dyDescent="0.35">
       <c r="A57" s="8" t="s">
         <v>228</v>
       </c>
@@ -3130,7 +3145,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="16" x14ac:dyDescent="0.35">
       <c r="A58" s="8" t="s">
         <v>232</v>
       </c>
@@ -3153,7 +3168,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="16" x14ac:dyDescent="0.35">
       <c r="A59" s="8" t="s">
         <v>236</v>
       </c>
@@ -3176,7 +3191,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="16" x14ac:dyDescent="0.35">
       <c r="A60" s="8" t="s">
         <v>240</v>
       </c>
@@ -3199,7 +3214,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" ht="16" x14ac:dyDescent="0.35">
       <c r="A61" s="8" t="s">
         <v>244</v>
       </c>
@@ -3222,7 +3237,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" ht="16" x14ac:dyDescent="0.35">
       <c r="A62" s="8" t="s">
         <v>248</v>
       </c>
@@ -3245,7 +3260,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" ht="16" x14ac:dyDescent="0.35">
       <c r="A63" s="8" t="s">
         <v>252</v>
       </c>
@@ -3268,7 +3283,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" ht="16" x14ac:dyDescent="0.35">
       <c r="A64" s="8" t="s">
         <v>256</v>
       </c>
@@ -3291,7 +3306,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" ht="16" x14ac:dyDescent="0.35">
       <c r="A65" s="8" t="s">
         <v>260</v>
       </c>
@@ -3314,7 +3329,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" ht="16" x14ac:dyDescent="0.35">
       <c r="A66" s="8" t="s">
         <v>263</v>
       </c>
@@ -3337,7 +3352,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" ht="16" x14ac:dyDescent="0.35">
       <c r="A67" s="8" t="s">
         <v>98</v>
       </c>
@@ -3360,7 +3375,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" ht="16" x14ac:dyDescent="0.35">
       <c r="A68" s="8" t="s">
         <v>153</v>
       </c>
@@ -3383,7 +3398,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" ht="16" x14ac:dyDescent="0.35">
       <c r="A69" s="8" t="s">
         <v>273</v>
       </c>
@@ -3406,7 +3421,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" ht="32.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70" s="10" t="s">
         <v>277</v>
       </c>
@@ -3439,24 +3454,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9A968CA-597E-42CB-9D6B-E9A807DD61B3}">
   <dimension ref="A1:M70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.140625" customWidth="1"/>
+    <col min="1" max="1" width="23.1796875" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" customWidth="1"/>
+    <col min="3" max="3" width="24.26953125" customWidth="1"/>
     <col min="4" max="4" width="32" customWidth="1"/>
-    <col min="5" max="6" width="74.7109375" customWidth="1"/>
-    <col min="7" max="8" width="13.28515625" customWidth="1"/>
-    <col min="9" max="9" width="21.5703125" customWidth="1"/>
-    <col min="10" max="10" width="60.85546875" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" customWidth="1"/>
+    <col min="5" max="6" width="74.7265625" customWidth="1"/>
+    <col min="7" max="8" width="13.26953125" customWidth="1"/>
+    <col min="9" max="9" width="21.54296875" customWidth="1"/>
+    <col min="10" max="10" width="60.81640625" customWidth="1"/>
+    <col min="11" max="11" width="15.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -3488,7 +3503,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
         <v>7</v>
       </c>
@@ -3516,7 +3531,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
         <v>13</v>
       </c>
@@ -3542,7 +3557,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="14" t="s">
         <v>18</v>
       </c>
@@ -3570,7 +3585,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="14" t="s">
         <v>22</v>
       </c>
@@ -3598,7 +3613,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="14" t="s">
         <v>26</v>
       </c>
@@ -3626,7 +3641,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="14" t="s">
         <v>30</v>
       </c>
@@ -3654,7 +3669,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="14" t="s">
         <v>34</v>
       </c>
@@ -3680,7 +3695,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="14" t="s">
         <v>38</v>
       </c>
@@ -3708,7 +3723,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="14" t="s">
         <v>42</v>
       </c>
@@ -3736,7 +3751,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="14" t="s">
         <v>46</v>
       </c>
@@ -3764,7 +3779,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="14" t="s">
         <v>50</v>
       </c>
@@ -3792,7 +3807,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="14" t="s">
         <v>54</v>
       </c>
@@ -3820,7 +3835,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="14" t="s">
         <v>58</v>
       </c>
@@ -3848,7 +3863,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="14" t="s">
         <v>22</v>
       </c>
@@ -3876,7 +3891,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="14" t="s">
         <v>67</v>
       </c>
@@ -3904,7 +3919,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="14" t="s">
         <v>71</v>
       </c>
@@ -3932,7 +3947,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="14" t="s">
         <v>71</v>
       </c>
@@ -3949,7 +3964,9 @@
         <v>296</v>
       </c>
       <c r="F18" s="23"/>
-      <c r="G18" s="25"/>
+      <c r="G18" s="25" t="s">
+        <v>347</v>
+      </c>
       <c r="H18" s="25"/>
       <c r="I18" s="15">
         <v>253</v>
@@ -3958,7 +3975,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="14" t="s">
         <v>78</v>
       </c>
@@ -3975,7 +3992,9 @@
         <v>297</v>
       </c>
       <c r="F19" s="23"/>
-      <c r="G19" s="25"/>
+      <c r="G19" s="25" t="s">
+        <v>352</v>
+      </c>
       <c r="H19" s="25"/>
       <c r="I19" s="15">
         <v>4</v>
@@ -3984,7 +4003,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="14" t="s">
         <v>82</v>
       </c>
@@ -4001,7 +4020,9 @@
         <v>298</v>
       </c>
       <c r="F20" s="23"/>
-      <c r="G20" s="25"/>
+      <c r="G20" s="25" t="s">
+        <v>348</v>
+      </c>
       <c r="H20" s="25"/>
       <c r="I20" s="15">
         <v>25</v>
@@ -4010,7 +4031,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="14" t="s">
         <v>86</v>
       </c>
@@ -4038,7 +4059,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="14" t="s">
         <v>18</v>
       </c>
@@ -4055,7 +4076,9 @@
         <v>300</v>
       </c>
       <c r="F22" s="23"/>
-      <c r="G22" s="25"/>
+      <c r="G22" s="25" t="s">
+        <v>347</v>
+      </c>
       <c r="H22" s="25"/>
       <c r="I22" s="15">
         <v>85</v>
@@ -4064,7 +4087,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="14" t="s">
         <v>67</v>
       </c>
@@ -4090,7 +4113,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="14" t="s">
         <v>98</v>
       </c>
@@ -4118,7 +4141,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="14" t="s">
         <v>104</v>
       </c>
@@ -4146,7 +4169,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="14" t="s">
         <v>108</v>
       </c>
@@ -4174,7 +4197,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="14" t="s">
         <v>112</v>
       </c>
@@ -4191,7 +4214,9 @@
         <v>305</v>
       </c>
       <c r="F27" s="23"/>
-      <c r="G27" s="25"/>
+      <c r="G27" s="25" t="s">
+        <v>353</v>
+      </c>
       <c r="H27" s="25"/>
       <c r="I27" s="15">
         <v>31</v>
@@ -4200,7 +4225,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="14" t="s">
         <v>116</v>
       </c>
@@ -4217,7 +4242,9 @@
         <v>306</v>
       </c>
       <c r="F28" s="23"/>
-      <c r="G28" s="25"/>
+      <c r="G28" s="25" t="s">
+        <v>354</v>
+      </c>
       <c r="H28" s="25"/>
       <c r="I28" s="15">
         <v>37</v>
@@ -4226,7 +4253,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="14" t="s">
         <v>120</v>
       </c>
@@ -4254,7 +4281,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="14" t="s">
         <v>124</v>
       </c>
@@ -4282,7 +4309,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="14" t="s">
         <v>128</v>
       </c>
@@ -4310,7 +4337,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="14" t="s">
         <v>132</v>
       </c>
@@ -4338,7 +4365,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="14" t="s">
         <v>136</v>
       </c>
@@ -4366,7 +4393,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="14" t="s">
         <v>140</v>
       </c>
@@ -4394,7 +4421,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="14" t="s">
         <v>144</v>
       </c>
@@ -4422,7 +4449,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="14" t="s">
         <v>98</v>
       </c>
@@ -4450,7 +4477,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="14" t="s">
         <v>18</v>
       </c>
@@ -4467,7 +4494,9 @@
         <v>300</v>
       </c>
       <c r="F37" s="23"/>
-      <c r="G37" s="25"/>
+      <c r="G37" s="25" t="s">
+        <v>347</v>
+      </c>
       <c r="H37" s="25"/>
       <c r="I37" s="15">
         <v>332</v>
@@ -4476,7 +4505,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="14" t="s">
         <v>153</v>
       </c>
@@ -4502,7 +4531,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="14" t="s">
         <v>157</v>
       </c>
@@ -4519,7 +4548,9 @@
         <v>316</v>
       </c>
       <c r="F39" s="23"/>
-      <c r="G39" s="25"/>
+      <c r="G39" s="25" t="s">
+        <v>347</v>
+      </c>
       <c r="H39" s="25"/>
       <c r="I39" s="15">
         <v>-999</v>
@@ -4528,7 +4559,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="14" t="s">
         <v>161</v>
       </c>
@@ -4554,7 +4585,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="14" t="s">
         <v>165</v>
       </c>
@@ -4582,7 +4613,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="14" t="s">
         <v>169</v>
       </c>
@@ -4610,7 +4641,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="14" t="s">
         <v>173</v>
       </c>
@@ -4636,7 +4667,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="14" t="s">
         <v>177</v>
       </c>
@@ -4653,7 +4684,9 @@
         <v>321</v>
       </c>
       <c r="F44" s="23"/>
-      <c r="G44" s="25"/>
+      <c r="G44" s="25" t="s">
+        <v>348</v>
+      </c>
       <c r="H44" s="25"/>
       <c r="I44" s="15">
         <v>50</v>
@@ -4662,7 +4695,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" s="14" t="s">
         <v>82</v>
       </c>
@@ -4690,7 +4723,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" s="14" t="s">
         <v>183</v>
       </c>
@@ -4716,7 +4749,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" s="14" t="s">
         <v>187</v>
       </c>
@@ -4733,7 +4766,9 @@
         <v>326</v>
       </c>
       <c r="F47" s="23"/>
-      <c r="G47" s="25"/>
+      <c r="G47" s="25" t="s">
+        <v>352</v>
+      </c>
       <c r="H47" s="25"/>
       <c r="I47" s="15">
         <v>25</v>
@@ -4742,7 +4777,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" s="14" t="s">
         <v>191</v>
       </c>
@@ -4759,7 +4794,9 @@
         <v>327</v>
       </c>
       <c r="F48" s="23"/>
-      <c r="G48" s="25"/>
+      <c r="G48" s="25" t="s">
+        <v>347</v>
+      </c>
       <c r="H48" s="25"/>
       <c r="I48" s="15">
         <v>96</v>
@@ -4768,7 +4805,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49" s="14" t="s">
         <v>195</v>
       </c>
@@ -4794,7 +4831,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50" s="14" t="s">
         <v>199</v>
       </c>
@@ -4820,7 +4857,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51" s="14" t="s">
         <v>203</v>
       </c>
@@ -4846,7 +4883,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52" s="14" t="s">
         <v>208</v>
       </c>
@@ -4863,7 +4900,9 @@
         <v>331</v>
       </c>
       <c r="F52" s="23"/>
-      <c r="G52" s="25"/>
+      <c r="G52" s="25" t="s">
+        <v>347</v>
+      </c>
       <c r="H52" s="25"/>
       <c r="I52" s="15">
         <v>87</v>
@@ -4872,7 +4911,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53" s="14" t="s">
         <v>212</v>
       </c>
@@ -4889,7 +4928,9 @@
         <v>332</v>
       </c>
       <c r="F53" s="23"/>
-      <c r="G53" s="25"/>
+      <c r="G53" s="25" t="s">
+        <v>347</v>
+      </c>
       <c r="H53" s="25"/>
       <c r="I53" s="15">
         <v>61</v>
@@ -4898,7 +4939,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="14" t="s">
         <v>216</v>
       </c>
@@ -4915,7 +4956,9 @@
         <v>333</v>
       </c>
       <c r="F54" s="23"/>
-      <c r="G54" s="25"/>
+      <c r="G54" s="25" t="s">
+        <v>348</v>
+      </c>
       <c r="H54" s="25"/>
       <c r="I54" s="15">
         <v>25</v>
@@ -4924,7 +4967,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="14" t="s">
         <v>220</v>
       </c>
@@ -4941,7 +4984,9 @@
         <v>334</v>
       </c>
       <c r="F55" s="23"/>
-      <c r="G55" s="25"/>
+      <c r="G55" s="25" t="s">
+        <v>355</v>
+      </c>
       <c r="H55" s="25"/>
       <c r="I55" s="15">
         <v>6</v>
@@ -4951,7 +4996,7 @@
       </c>
       <c r="M55" s="13"/>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A56" s="14" t="s">
         <v>224</v>
       </c>
@@ -4968,7 +5013,9 @@
         <v>335</v>
       </c>
       <c r="F56" s="23"/>
-      <c r="G56" s="25"/>
+      <c r="G56" s="25" t="s">
+        <v>348</v>
+      </c>
       <c r="H56" s="25"/>
       <c r="I56" s="15">
         <v>97</v>
@@ -4977,7 +5024,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A57" s="14" t="s">
         <v>228</v>
       </c>
@@ -4994,7 +5041,9 @@
         <v>336</v>
       </c>
       <c r="F57" s="23"/>
-      <c r="G57" s="25"/>
+      <c r="G57" s="25" t="s">
+        <v>348</v>
+      </c>
       <c r="H57" s="25"/>
       <c r="I57" s="15">
         <v>79</v>
@@ -5003,7 +5052,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A58" s="14" t="s">
         <v>232</v>
       </c>
@@ -5020,7 +5069,9 @@
         <v>337</v>
       </c>
       <c r="F58" s="23"/>
-      <c r="G58" s="25"/>
+      <c r="G58" s="25" t="s">
+        <v>348</v>
+      </c>
       <c r="H58" s="25"/>
       <c r="I58" s="15">
         <v>25</v>
@@ -5029,7 +5080,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A59" s="14" t="s">
         <v>236</v>
       </c>
@@ -5046,7 +5097,9 @@
         <v>338</v>
       </c>
       <c r="F59" s="23"/>
-      <c r="G59" s="25"/>
+      <c r="G59" s="25" t="s">
+        <v>356</v>
+      </c>
       <c r="H59" s="25"/>
       <c r="I59" s="15">
         <v>10</v>
@@ -5055,7 +5108,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A60" s="14" t="s">
         <v>240</v>
       </c>
@@ -5072,7 +5125,9 @@
         <v>339</v>
       </c>
       <c r="F60" s="23"/>
-      <c r="G60" s="25"/>
+      <c r="G60" s="25" t="s">
+        <v>352</v>
+      </c>
       <c r="H60" s="25"/>
       <c r="I60" s="15">
         <v>55</v>
@@ -5081,7 +5136,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A61" s="14" t="s">
         <v>244</v>
       </c>
@@ -5098,7 +5153,9 @@
         <v>247</v>
       </c>
       <c r="F61" s="23"/>
-      <c r="G61" s="25"/>
+      <c r="G61" s="25" t="s">
+        <v>348</v>
+      </c>
       <c r="H61" s="25"/>
       <c r="I61" s="15">
         <v>22</v>
@@ -5107,7 +5164,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A62" s="14" t="s">
         <v>248</v>
       </c>
@@ -5124,7 +5181,9 @@
         <v>340</v>
       </c>
       <c r="F62" s="23"/>
-      <c r="G62" s="25"/>
+      <c r="G62" s="25" t="s">
+        <v>347</v>
+      </c>
       <c r="H62" s="25"/>
       <c r="I62" s="15">
         <v>44</v>
@@ -5133,7 +5192,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A63" s="14" t="s">
         <v>252</v>
       </c>
@@ -5150,7 +5209,9 @@
         <v>341</v>
       </c>
       <c r="F63" s="23"/>
-      <c r="G63" s="25"/>
+      <c r="G63" s="25" t="s">
+        <v>347</v>
+      </c>
       <c r="H63" s="25"/>
       <c r="I63" s="15">
         <v>10</v>
@@ -5159,7 +5220,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A64" s="14" t="s">
         <v>256</v>
       </c>
@@ -5185,7 +5246,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65" s="14" t="s">
         <v>260</v>
       </c>
@@ -5211,7 +5272,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A66" s="14" t="s">
         <v>263</v>
       </c>
@@ -5228,7 +5289,9 @@
         <v>343</v>
       </c>
       <c r="F66" s="23"/>
-      <c r="G66" s="25"/>
+      <c r="G66" s="25" t="s">
+        <v>347</v>
+      </c>
       <c r="H66" s="25"/>
       <c r="I66" s="15">
         <v>16</v>
@@ -5237,7 +5300,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67" s="14" t="s">
         <v>98</v>
       </c>
@@ -5265,7 +5328,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68" s="14" t="s">
         <v>153</v>
       </c>
@@ -5291,7 +5354,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69" s="14" t="s">
         <v>273</v>
       </c>
@@ -5308,7 +5371,9 @@
         <v>323</v>
       </c>
       <c r="F69" s="23"/>
-      <c r="G69" s="25"/>
+      <c r="G69" s="25" t="s">
+        <v>352</v>
+      </c>
       <c r="H69" s="25"/>
       <c r="I69" s="15">
         <v>86</v>
@@ -5317,7 +5382,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70" s="17" t="s">
         <v>277</v>
       </c>

--- a/src/Python_Files/data_files/Hospital_Data.xlsx
+++ b/src/Python_Files/data_files/Hospital_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\epicp\Documents\GitHub\G1\src\Python_Files\data_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{629DC6FB-4312-43E7-A8B4-75815A0F3807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3AA6900-4485-47A6-8F8B-C324882E2B59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{EA59E9A6-90DB-4C1F-8228-F4195F152102}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{EA59E9A6-90DB-4C1F-8228-F4195F152102}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="365">
   <si>
     <t>City</t>
   </si>
@@ -1106,6 +1106,30 @@
   </si>
   <si>
     <t>.xls</t>
+  </si>
+  <si>
+    <t>Could not find -- Logan Health branch</t>
+  </si>
+  <si>
+    <t>Cannot find</t>
+  </si>
+  <si>
+    <t>Duplicate of Benefis Teton Medical</t>
+  </si>
+  <si>
+    <t>Web format only</t>
+  </si>
+  <si>
+    <t>Duplicate of Billings Clinic</t>
+  </si>
+  <si>
+    <t>Cannot find -- Indian Reservation</t>
+  </si>
+  <si>
+    <t>Cannot find -- Logan Health Branch</t>
+  </si>
+  <si>
+    <t>Cannot find -- Military Hospital</t>
   </si>
 </sst>
 </file>
@@ -1450,7 +1474,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1502,6 +1526,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3454,8 +3479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9A968CA-597E-42CB-9D6B-E9A807DD61B3}">
   <dimension ref="A1:M70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="B40" workbookViewId="0">
+      <selection activeCell="F66" sqref="F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3475,7 +3500,7 @@
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="21" t="s">
@@ -3507,7 +3532,7 @@
       <c r="A2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="15" t="s">
@@ -3519,7 +3544,7 @@
       <c r="E2" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="23"/>
+      <c r="F2" s="15"/>
       <c r="G2" s="25" t="s">
         <v>347</v>
       </c>
@@ -3535,7 +3560,7 @@
       <c r="A3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="15" t="s">
@@ -3547,7 +3572,9 @@
       <c r="E3" s="23" t="s">
         <v>281</v>
       </c>
-      <c r="F3" s="23"/>
+      <c r="F3" s="27" t="s">
+        <v>357</v>
+      </c>
       <c r="G3" s="25"/>
       <c r="H3" s="25"/>
       <c r="I3" s="15">
@@ -3561,7 +3588,7 @@
       <c r="A4" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>19</v>
       </c>
       <c r="C4" s="15" t="s">
@@ -3573,7 +3600,7 @@
       <c r="E4" s="23" t="s">
         <v>282</v>
       </c>
-      <c r="F4" s="23"/>
+      <c r="F4" s="15"/>
       <c r="G4" s="25" t="s">
         <v>347</v>
       </c>
@@ -3589,7 +3616,7 @@
       <c r="A5" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>23</v>
       </c>
       <c r="C5" s="15" t="s">
@@ -3601,7 +3628,7 @@
       <c r="E5" s="23" t="s">
         <v>283</v>
       </c>
-      <c r="F5" s="23"/>
+      <c r="F5" s="15"/>
       <c r="G5" s="25" t="s">
         <v>347</v>
       </c>
@@ -3617,7 +3644,7 @@
       <c r="A6" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>27</v>
       </c>
       <c r="C6" s="15" t="s">
@@ -3629,7 +3656,7 @@
       <c r="E6" s="23" t="s">
         <v>284</v>
       </c>
-      <c r="F6" s="23"/>
+      <c r="F6" s="15"/>
       <c r="G6" s="25" t="s">
         <v>347</v>
       </c>
@@ -3645,7 +3672,7 @@
       <c r="A7" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>31</v>
       </c>
       <c r="C7" s="15" t="s">
@@ -3657,7 +3684,7 @@
       <c r="E7" s="23" t="s">
         <v>285</v>
       </c>
-      <c r="F7" s="23"/>
+      <c r="F7" s="15"/>
       <c r="G7" s="25" t="s">
         <v>347</v>
       </c>
@@ -3673,7 +3700,7 @@
       <c r="A8" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>35</v>
       </c>
       <c r="C8" s="15" t="s">
@@ -3685,7 +3712,9 @@
       <c r="E8" s="23" t="s">
         <v>286</v>
       </c>
-      <c r="F8" s="23"/>
+      <c r="F8" s="27" t="s">
+        <v>358</v>
+      </c>
       <c r="G8" s="25"/>
       <c r="H8" s="25"/>
       <c r="I8" s="15">
@@ -3699,7 +3728,7 @@
       <c r="A9" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>39</v>
       </c>
       <c r="C9" s="15" t="s">
@@ -3711,7 +3740,7 @@
       <c r="E9" s="23" t="s">
         <v>287</v>
       </c>
-      <c r="F9" s="23"/>
+      <c r="F9" s="15"/>
       <c r="G9" s="25" t="s">
         <v>347</v>
       </c>
@@ -3727,7 +3756,7 @@
       <c r="A10" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="14" t="s">
         <v>43</v>
       </c>
       <c r="C10" s="15" t="s">
@@ -3739,7 +3768,7 @@
       <c r="E10" s="23" t="s">
         <v>288</v>
       </c>
-      <c r="F10" s="23"/>
+      <c r="F10" s="15"/>
       <c r="G10" s="25" t="s">
         <v>347</v>
       </c>
@@ -3755,7 +3784,7 @@
       <c r="A11" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="14" t="s">
         <v>47</v>
       </c>
       <c r="C11" s="15" t="s">
@@ -3767,7 +3796,7 @@
       <c r="E11" s="23" t="s">
         <v>289</v>
       </c>
-      <c r="F11" s="23"/>
+      <c r="F11" s="15"/>
       <c r="G11" s="25" t="s">
         <v>347</v>
       </c>
@@ -3783,7 +3812,7 @@
       <c r="A12" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="14" t="s">
         <v>51</v>
       </c>
       <c r="C12" s="15" t="s">
@@ -3795,7 +3824,7 @@
       <c r="E12" s="23" t="s">
         <v>290</v>
       </c>
-      <c r="F12" s="23"/>
+      <c r="F12" s="15"/>
       <c r="G12" s="25" t="s">
         <v>347</v>
       </c>
@@ -3811,7 +3840,7 @@
       <c r="A13" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="14" t="s">
         <v>55</v>
       </c>
       <c r="C13" s="15" t="s">
@@ -3823,7 +3852,7 @@
       <c r="E13" s="23" t="s">
         <v>291</v>
       </c>
-      <c r="F13" s="23"/>
+      <c r="F13" s="15"/>
       <c r="G13" s="25" t="s">
         <v>347</v>
       </c>
@@ -3839,7 +3868,7 @@
       <c r="A14" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="14" t="s">
         <v>59</v>
       </c>
       <c r="C14" s="15" t="s">
@@ -3851,7 +3880,7 @@
       <c r="E14" s="23" t="s">
         <v>292</v>
       </c>
-      <c r="F14" s="23"/>
+      <c r="F14" s="15"/>
       <c r="G14" s="25" t="s">
         <v>347</v>
       </c>
@@ -3867,7 +3896,7 @@
       <c r="A15" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="14" t="s">
         <v>62</v>
       </c>
       <c r="C15" s="15" t="s">
@@ -3879,7 +3908,7 @@
       <c r="E15" s="23" t="s">
         <v>293</v>
       </c>
-      <c r="F15" s="23"/>
+      <c r="F15" s="15"/>
       <c r="G15" s="25" t="s">
         <v>347</v>
       </c>
@@ -3895,7 +3924,7 @@
       <c r="A16" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="14" t="s">
         <v>68</v>
       </c>
       <c r="C16" s="15" t="s">
@@ -3907,7 +3936,7 @@
       <c r="E16" s="23" t="s">
         <v>294</v>
       </c>
-      <c r="F16" s="23"/>
+      <c r="F16" s="15"/>
       <c r="G16" s="25" t="s">
         <v>347</v>
       </c>
@@ -3923,7 +3952,7 @@
       <c r="A17" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="14" t="s">
         <v>72</v>
       </c>
       <c r="C17" s="15" t="s">
@@ -3935,7 +3964,7 @@
       <c r="E17" s="23" t="s">
         <v>295</v>
       </c>
-      <c r="F17" s="23"/>
+      <c r="F17" s="15"/>
       <c r="G17" s="25" t="s">
         <v>347</v>
       </c>
@@ -3951,7 +3980,7 @@
       <c r="A18" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="14" t="s">
         <v>75</v>
       </c>
       <c r="C18" s="15" t="s">
@@ -3963,7 +3992,7 @@
       <c r="E18" s="23" t="s">
         <v>296</v>
       </c>
-      <c r="F18" s="23"/>
+      <c r="F18" s="15"/>
       <c r="G18" s="25" t="s">
         <v>347</v>
       </c>
@@ -3979,7 +4008,7 @@
       <c r="A19" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="14" t="s">
         <v>79</v>
       </c>
       <c r="C19" s="15" t="s">
@@ -3991,7 +4020,9 @@
       <c r="E19" s="23" t="s">
         <v>297</v>
       </c>
-      <c r="F19" s="23"/>
+      <c r="F19" s="27" t="s">
+        <v>360</v>
+      </c>
       <c r="G19" s="25" t="s">
         <v>352</v>
       </c>
@@ -4007,7 +4038,7 @@
       <c r="A20" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="14" t="s">
         <v>83</v>
       </c>
       <c r="C20" s="15" t="s">
@@ -4019,7 +4050,7 @@
       <c r="E20" s="23" t="s">
         <v>298</v>
       </c>
-      <c r="F20" s="23"/>
+      <c r="F20" s="15"/>
       <c r="G20" s="25" t="s">
         <v>348</v>
       </c>
@@ -4035,7 +4066,7 @@
       <c r="A21" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="14" t="s">
         <v>87</v>
       </c>
       <c r="C21" s="15" t="s">
@@ -4047,7 +4078,7 @@
       <c r="E21" s="23" t="s">
         <v>299</v>
       </c>
-      <c r="F21" s="23"/>
+      <c r="F21" s="15"/>
       <c r="G21" s="25" t="s">
         <v>347</v>
       </c>
@@ -4063,7 +4094,7 @@
       <c r="A22" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="14" t="s">
         <v>90</v>
       </c>
       <c r="C22" s="15" t="s">
@@ -4075,7 +4106,9 @@
       <c r="E22" s="23" t="s">
         <v>300</v>
       </c>
-      <c r="F22" s="23"/>
+      <c r="F22" s="27" t="s">
+        <v>359</v>
+      </c>
       <c r="G22" s="25" t="s">
         <v>347</v>
       </c>
@@ -4091,7 +4124,7 @@
       <c r="A23" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="14" t="s">
         <v>93</v>
       </c>
       <c r="C23" s="15" t="s">
@@ -4103,7 +4136,9 @@
       <c r="E23" s="23" t="s">
         <v>301</v>
       </c>
-      <c r="F23" s="23"/>
+      <c r="F23" s="27" t="s">
+        <v>358</v>
+      </c>
       <c r="G23" s="25"/>
       <c r="H23" s="25"/>
       <c r="I23" s="15">
@@ -4117,7 +4152,7 @@
       <c r="A24" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="14" t="s">
         <v>99</v>
       </c>
       <c r="C24" s="15" t="s">
@@ -4129,7 +4164,7 @@
       <c r="E24" s="23" t="s">
         <v>302</v>
       </c>
-      <c r="F24" s="23"/>
+      <c r="F24" s="15"/>
       <c r="G24" s="25" t="s">
         <v>347</v>
       </c>
@@ -4145,7 +4180,7 @@
       <c r="A25" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="14" t="s">
         <v>105</v>
       </c>
       <c r="C25" s="15" t="s">
@@ -4157,7 +4192,7 @@
       <c r="E25" s="23" t="s">
         <v>303</v>
       </c>
-      <c r="F25" s="23"/>
+      <c r="F25" s="15"/>
       <c r="G25" s="25" t="s">
         <v>347</v>
       </c>
@@ -4173,7 +4208,7 @@
       <c r="A26" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="14" t="s">
         <v>109</v>
       </c>
       <c r="C26" s="15" t="s">
@@ -4185,7 +4220,7 @@
       <c r="E26" s="23" t="s">
         <v>304</v>
       </c>
-      <c r="F26" s="23"/>
+      <c r="F26" s="15"/>
       <c r="G26" s="25" t="s">
         <v>347</v>
       </c>
@@ -4201,7 +4236,7 @@
       <c r="A27" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="14" t="s">
         <v>113</v>
       </c>
       <c r="C27" s="15" t="s">
@@ -4213,7 +4248,7 @@
       <c r="E27" s="23" t="s">
         <v>305</v>
       </c>
-      <c r="F27" s="23"/>
+      <c r="F27" s="27"/>
       <c r="G27" s="25" t="s">
         <v>353</v>
       </c>
@@ -4229,7 +4264,7 @@
       <c r="A28" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="14" t="s">
         <v>117</v>
       </c>
       <c r="C28" s="15" t="s">
@@ -4241,7 +4276,7 @@
       <c r="E28" s="23" t="s">
         <v>306</v>
       </c>
-      <c r="F28" s="23"/>
+      <c r="F28" s="15"/>
       <c r="G28" s="25" t="s">
         <v>354</v>
       </c>
@@ -4257,7 +4292,7 @@
       <c r="A29" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="14" t="s">
         <v>121</v>
       </c>
       <c r="C29" s="15" t="s">
@@ -4269,7 +4304,7 @@
       <c r="E29" s="23" t="s">
         <v>307</v>
       </c>
-      <c r="F29" s="23"/>
+      <c r="F29" s="15"/>
       <c r="G29" s="25" t="s">
         <v>347</v>
       </c>
@@ -4285,7 +4320,7 @@
       <c r="A30" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="14" t="s">
         <v>125</v>
       </c>
       <c r="C30" s="15" t="s">
@@ -4313,7 +4348,7 @@
       <c r="A31" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="14" t="s">
         <v>129</v>
       </c>
       <c r="C31" s="15" t="s">
@@ -4325,7 +4360,9 @@
       <c r="E31" s="23" t="s">
         <v>309</v>
       </c>
-      <c r="F31" s="23"/>
+      <c r="F31" s="27" t="s">
+        <v>361</v>
+      </c>
       <c r="G31" s="25" t="s">
         <v>347</v>
       </c>
@@ -4341,7 +4378,7 @@
       <c r="A32" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="14" t="s">
         <v>133</v>
       </c>
       <c r="C32" s="15" t="s">
@@ -4353,7 +4390,7 @@
       <c r="E32" s="23" t="s">
         <v>310</v>
       </c>
-      <c r="F32" s="23"/>
+      <c r="F32" s="15"/>
       <c r="G32" s="25" t="s">
         <v>348</v>
       </c>
@@ -4369,7 +4406,7 @@
       <c r="A33" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="14" t="s">
         <v>137</v>
       </c>
       <c r="C33" s="15" t="s">
@@ -4381,7 +4418,7 @@
       <c r="E33" s="23" t="s">
         <v>311</v>
       </c>
-      <c r="F33" s="23"/>
+      <c r="F33" s="15"/>
       <c r="G33" s="25" t="s">
         <v>347</v>
       </c>
@@ -4397,7 +4434,7 @@
       <c r="A34" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="14" t="s">
         <v>141</v>
       </c>
       <c r="C34" s="15" t="s">
@@ -4409,7 +4446,7 @@
       <c r="E34" s="23" t="s">
         <v>312</v>
       </c>
-      <c r="F34" s="23"/>
+      <c r="F34" s="15"/>
       <c r="G34" s="25" t="s">
         <v>348</v>
       </c>
@@ -4425,7 +4462,7 @@
       <c r="A35" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="B35" s="15" t="s">
+      <c r="B35" s="14" t="s">
         <v>145</v>
       </c>
       <c r="C35" s="15" t="s">
@@ -4437,7 +4474,7 @@
       <c r="E35" s="23" t="s">
         <v>313</v>
       </c>
-      <c r="F35" s="23"/>
+      <c r="F35" s="15"/>
       <c r="G35" s="25" t="s">
         <v>347</v>
       </c>
@@ -4453,7 +4490,7 @@
       <c r="A36" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="B36" s="15" t="s">
+      <c r="B36" s="14" t="s">
         <v>148</v>
       </c>
       <c r="C36" s="15" t="s">
@@ -4465,7 +4502,7 @@
       <c r="E36" s="23" t="s">
         <v>314</v>
       </c>
-      <c r="F36" s="23"/>
+      <c r="F36" s="15"/>
       <c r="G36" s="25" t="s">
         <v>347</v>
       </c>
@@ -4481,7 +4518,7 @@
       <c r="A37" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B37" s="15" t="s">
+      <c r="B37" s="14" t="s">
         <v>151</v>
       </c>
       <c r="C37" s="15" t="s">
@@ -4493,7 +4530,9 @@
       <c r="E37" s="23" t="s">
         <v>300</v>
       </c>
-      <c r="F37" s="23"/>
+      <c r="F37" s="27" t="s">
+        <v>359</v>
+      </c>
       <c r="G37" s="25" t="s">
         <v>347</v>
       </c>
@@ -4509,7 +4548,7 @@
       <c r="A38" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="B38" s="15" t="s">
+      <c r="B38" s="14" t="s">
         <v>154</v>
       </c>
       <c r="C38" s="15" t="s">
@@ -4521,7 +4560,9 @@
       <c r="E38" s="23" t="s">
         <v>315</v>
       </c>
-      <c r="F38" s="23"/>
+      <c r="F38" s="27" t="s">
+        <v>357</v>
+      </c>
       <c r="G38" s="25"/>
       <c r="H38" s="25"/>
       <c r="I38" s="15">
@@ -4535,7 +4576,7 @@
       <c r="A39" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="B39" s="15" t="s">
+      <c r="B39" s="14" t="s">
         <v>158</v>
       </c>
       <c r="C39" s="15" t="s">
@@ -4547,7 +4588,7 @@
       <c r="E39" s="23" t="s">
         <v>316</v>
       </c>
-      <c r="F39" s="23"/>
+      <c r="F39" s="15"/>
       <c r="G39" s="25" t="s">
         <v>347</v>
       </c>
@@ -4563,7 +4604,7 @@
       <c r="A40" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="B40" s="15" t="s">
+      <c r="B40" s="14" t="s">
         <v>162</v>
       </c>
       <c r="C40" s="15" t="s">
@@ -4575,7 +4616,9 @@
       <c r="E40" s="23" t="s">
         <v>317</v>
       </c>
-      <c r="F40" s="23"/>
+      <c r="F40" s="27" t="s">
+        <v>358</v>
+      </c>
       <c r="G40" s="25"/>
       <c r="H40" s="25"/>
       <c r="I40" s="15">
@@ -4589,7 +4632,7 @@
       <c r="A41" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="B41" s="15" t="s">
+      <c r="B41" s="14" t="s">
         <v>166</v>
       </c>
       <c r="C41" s="15" t="s">
@@ -4601,7 +4644,7 @@
       <c r="E41" s="23" t="s">
         <v>318</v>
       </c>
-      <c r="F41" s="23"/>
+      <c r="F41" s="15"/>
       <c r="G41" s="25" t="s">
         <v>347</v>
       </c>
@@ -4617,7 +4660,7 @@
       <c r="A42" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="B42" s="15" t="s">
+      <c r="B42" s="14" t="s">
         <v>170</v>
       </c>
       <c r="C42" s="15" t="s">
@@ -4629,7 +4672,7 @@
       <c r="E42" s="23" t="s">
         <v>319</v>
       </c>
-      <c r="F42" s="23"/>
+      <c r="F42" s="15"/>
       <c r="G42" s="25" t="s">
         <v>347</v>
       </c>
@@ -4645,7 +4688,7 @@
       <c r="A43" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="B43" s="15" t="s">
+      <c r="B43" s="14" t="s">
         <v>174</v>
       </c>
       <c r="C43" s="15" t="s">
@@ -4657,7 +4700,9 @@
       <c r="E43" s="23" t="s">
         <v>320</v>
       </c>
-      <c r="F43" s="23"/>
+      <c r="F43" s="27" t="s">
+        <v>362</v>
+      </c>
       <c r="G43" s="25"/>
       <c r="H43" s="25"/>
       <c r="I43" s="15">
@@ -4671,7 +4716,7 @@
       <c r="A44" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="14" t="s">
         <v>178</v>
       </c>
       <c r="C44" s="15" t="s">
@@ -4683,7 +4728,7 @@
       <c r="E44" s="23" t="s">
         <v>321</v>
       </c>
-      <c r="F44" s="23"/>
+      <c r="F44" s="15"/>
       <c r="G44" s="25" t="s">
         <v>348</v>
       </c>
@@ -4699,7 +4744,7 @@
       <c r="A45" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="B45" s="15" t="s">
+      <c r="B45" s="14" t="s">
         <v>83</v>
       </c>
       <c r="C45" s="15" t="s">
@@ -4711,7 +4756,7 @@
       <c r="E45" s="23" t="s">
         <v>324</v>
       </c>
-      <c r="F45" s="23"/>
+      <c r="F45" s="15"/>
       <c r="G45" s="25" t="s">
         <v>347</v>
       </c>
@@ -4727,7 +4772,7 @@
       <c r="A46" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="B46" s="15" t="s">
+      <c r="B46" s="14" t="s">
         <v>184</v>
       </c>
       <c r="C46" s="15" t="s">
@@ -4739,7 +4784,9 @@
       <c r="E46" s="23" t="s">
         <v>325</v>
       </c>
-      <c r="F46" s="23"/>
+      <c r="F46" s="27" t="s">
+        <v>358</v>
+      </c>
       <c r="G46" s="25"/>
       <c r="H46" s="25"/>
       <c r="I46" s="15">
@@ -4753,7 +4800,7 @@
       <c r="A47" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="B47" s="15" t="s">
+      <c r="B47" s="14" t="s">
         <v>188</v>
       </c>
       <c r="C47" s="15" t="s">
@@ -4765,7 +4812,9 @@
       <c r="E47" s="23" t="s">
         <v>326</v>
       </c>
-      <c r="F47" s="23"/>
+      <c r="F47" s="27" t="s">
+        <v>360</v>
+      </c>
       <c r="G47" s="25" t="s">
         <v>352</v>
       </c>
@@ -4781,7 +4830,7 @@
       <c r="A48" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="B48" s="15" t="s">
+      <c r="B48" s="14" t="s">
         <v>192</v>
       </c>
       <c r="C48" s="15" t="s">
@@ -4793,7 +4842,7 @@
       <c r="E48" s="23" t="s">
         <v>327</v>
       </c>
-      <c r="F48" s="23"/>
+      <c r="F48" s="15"/>
       <c r="G48" s="25" t="s">
         <v>347</v>
       </c>
@@ -4809,7 +4858,7 @@
       <c r="A49" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="B49" s="15" t="s">
+      <c r="B49" s="14" t="s">
         <v>196</v>
       </c>
       <c r="C49" s="15" t="s">
@@ -4821,7 +4870,9 @@
       <c r="E49" s="23" t="s">
         <v>328</v>
       </c>
-      <c r="F49" s="23"/>
+      <c r="F49" s="27" t="s">
+        <v>358</v>
+      </c>
       <c r="G49" s="25"/>
       <c r="H49" s="25"/>
       <c r="I49" s="15">
@@ -4835,7 +4886,7 @@
       <c r="A50" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="B50" s="15" t="s">
+      <c r="B50" s="14" t="s">
         <v>200</v>
       </c>
       <c r="C50" s="15" t="s">
@@ -4847,7 +4898,9 @@
       <c r="E50" s="23" t="s">
         <v>329</v>
       </c>
-      <c r="F50" s="23"/>
+      <c r="F50" s="27" t="s">
+        <v>358</v>
+      </c>
       <c r="G50" s="25"/>
       <c r="H50" s="25"/>
       <c r="I50" s="15">
@@ -4861,7 +4914,7 @@
       <c r="A51" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="B51" s="15" t="s">
+      <c r="B51" s="14" t="s">
         <v>204</v>
       </c>
       <c r="C51" s="15" t="s">
@@ -4873,7 +4926,9 @@
       <c r="E51" s="23" t="s">
         <v>330</v>
       </c>
-      <c r="F51" s="23"/>
+      <c r="F51" s="27" t="s">
+        <v>364</v>
+      </c>
       <c r="G51" s="25"/>
       <c r="H51" s="25"/>
       <c r="I51" s="15">
@@ -4887,7 +4942,7 @@
       <c r="A52" s="14" t="s">
         <v>208</v>
       </c>
-      <c r="B52" s="15" t="s">
+      <c r="B52" s="14" t="s">
         <v>209</v>
       </c>
       <c r="C52" s="15" t="s">
@@ -4899,7 +4954,7 @@
       <c r="E52" s="23" t="s">
         <v>331</v>
       </c>
-      <c r="F52" s="23"/>
+      <c r="F52" s="15"/>
       <c r="G52" s="25" t="s">
         <v>347</v>
       </c>
@@ -4915,7 +4970,7 @@
       <c r="A53" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="B53" s="15" t="s">
+      <c r="B53" s="14" t="s">
         <v>213</v>
       </c>
       <c r="C53" s="15" t="s">
@@ -4927,7 +4982,7 @@
       <c r="E53" s="23" t="s">
         <v>332</v>
       </c>
-      <c r="F53" s="23"/>
+      <c r="F53" s="15"/>
       <c r="G53" s="25" t="s">
         <v>347</v>
       </c>
@@ -4943,7 +4998,7 @@
       <c r="A54" s="14" t="s">
         <v>216</v>
       </c>
-      <c r="B54" s="15" t="s">
+      <c r="B54" s="14" t="s">
         <v>217</v>
       </c>
       <c r="C54" s="15" t="s">
@@ -4955,7 +5010,7 @@
       <c r="E54" s="23" t="s">
         <v>333</v>
       </c>
-      <c r="F54" s="23"/>
+      <c r="F54" s="15"/>
       <c r="G54" s="25" t="s">
         <v>348</v>
       </c>
@@ -4971,7 +5026,7 @@
       <c r="A55" s="14" t="s">
         <v>220</v>
       </c>
-      <c r="B55" s="15" t="s">
+      <c r="B55" s="14" t="s">
         <v>221</v>
       </c>
       <c r="C55" s="15" t="s">
@@ -4983,7 +5038,7 @@
       <c r="E55" s="23" t="s">
         <v>334</v>
       </c>
-      <c r="F55" s="23"/>
+      <c r="F55" s="27"/>
       <c r="G55" s="25" t="s">
         <v>355</v>
       </c>
@@ -5000,7 +5055,7 @@
       <c r="A56" s="14" t="s">
         <v>224</v>
       </c>
-      <c r="B56" s="15" t="s">
+      <c r="B56" s="14" t="s">
         <v>225</v>
       </c>
       <c r="C56" s="15" t="s">
@@ -5012,7 +5067,7 @@
       <c r="E56" s="23" t="s">
         <v>335</v>
       </c>
-      <c r="F56" s="23"/>
+      <c r="F56" s="15"/>
       <c r="G56" s="25" t="s">
         <v>348</v>
       </c>
@@ -5028,7 +5083,7 @@
       <c r="A57" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="B57" s="15" t="s">
+      <c r="B57" s="14" t="s">
         <v>229</v>
       </c>
       <c r="C57" s="15" t="s">
@@ -5040,7 +5095,7 @@
       <c r="E57" s="23" t="s">
         <v>336</v>
       </c>
-      <c r="F57" s="23"/>
+      <c r="F57" s="15"/>
       <c r="G57" s="25" t="s">
         <v>348</v>
       </c>
@@ -5056,7 +5111,7 @@
       <c r="A58" s="14" t="s">
         <v>232</v>
       </c>
-      <c r="B58" s="15" t="s">
+      <c r="B58" s="14" t="s">
         <v>233</v>
       </c>
       <c r="C58" s="15" t="s">
@@ -5068,7 +5123,7 @@
       <c r="E58" s="23" t="s">
         <v>337</v>
       </c>
-      <c r="F58" s="23"/>
+      <c r="F58" s="15"/>
       <c r="G58" s="25" t="s">
         <v>348</v>
       </c>
@@ -5084,7 +5139,7 @@
       <c r="A59" s="14" t="s">
         <v>236</v>
       </c>
-      <c r="B59" s="15" t="s">
+      <c r="B59" s="14" t="s">
         <v>237</v>
       </c>
       <c r="C59" s="15" t="s">
@@ -5096,7 +5151,7 @@
       <c r="E59" s="23" t="s">
         <v>338</v>
       </c>
-      <c r="F59" s="23"/>
+      <c r="F59" s="15"/>
       <c r="G59" s="25" t="s">
         <v>356</v>
       </c>
@@ -5112,7 +5167,7 @@
       <c r="A60" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="B60" s="15" t="s">
+      <c r="B60" s="14" t="s">
         <v>241</v>
       </c>
       <c r="C60" s="15" t="s">
@@ -5124,7 +5179,9 @@
       <c r="E60" s="23" t="s">
         <v>339</v>
       </c>
-      <c r="F60" s="23"/>
+      <c r="F60" s="27" t="s">
+        <v>360</v>
+      </c>
       <c r="G60" s="25" t="s">
         <v>352</v>
       </c>
@@ -5140,7 +5197,7 @@
       <c r="A61" s="14" t="s">
         <v>244</v>
       </c>
-      <c r="B61" s="15" t="s">
+      <c r="B61" s="14" t="s">
         <v>245</v>
       </c>
       <c r="C61" s="15" t="s">
@@ -5152,7 +5209,7 @@
       <c r="E61" s="23" t="s">
         <v>247</v>
       </c>
-      <c r="F61" s="23"/>
+      <c r="F61" s="15"/>
       <c r="G61" s="25" t="s">
         <v>348</v>
       </c>
@@ -5168,7 +5225,7 @@
       <c r="A62" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="B62" s="15" t="s">
+      <c r="B62" s="14" t="s">
         <v>249</v>
       </c>
       <c r="C62" s="15" t="s">
@@ -5180,7 +5237,7 @@
       <c r="E62" s="23" t="s">
         <v>340</v>
       </c>
-      <c r="F62" s="23"/>
+      <c r="F62" s="15"/>
       <c r="G62" s="25" t="s">
         <v>347</v>
       </c>
@@ -5196,7 +5253,7 @@
       <c r="A63" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="B63" s="15" t="s">
+      <c r="B63" s="14" t="s">
         <v>253</v>
       </c>
       <c r="C63" s="15" t="s">
@@ -5208,7 +5265,7 @@
       <c r="E63" s="23" t="s">
         <v>341</v>
       </c>
-      <c r="F63" s="23"/>
+      <c r="F63" s="15"/>
       <c r="G63" s="25" t="s">
         <v>347</v>
       </c>
@@ -5224,7 +5281,7 @@
       <c r="A64" s="14" t="s">
         <v>256</v>
       </c>
-      <c r="B64" s="15" t="s">
+      <c r="B64" s="14" t="s">
         <v>257</v>
       </c>
       <c r="C64" s="15" t="s">
@@ -5236,7 +5293,9 @@
       <c r="E64" s="23" t="s">
         <v>342</v>
       </c>
-      <c r="F64" s="23"/>
+      <c r="F64" s="27" t="s">
+        <v>358</v>
+      </c>
       <c r="G64" s="25"/>
       <c r="H64" s="25"/>
       <c r="I64" s="15">
@@ -5250,7 +5309,7 @@
       <c r="A65" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="B65" s="15" t="s">
+      <c r="B65" s="14" t="s">
         <v>261</v>
       </c>
       <c r="C65" s="15" t="s">
@@ -5262,7 +5321,9 @@
       <c r="E65" s="23" t="s">
         <v>314</v>
       </c>
-      <c r="F65" s="23"/>
+      <c r="F65" s="27" t="s">
+        <v>361</v>
+      </c>
       <c r="G65" s="25"/>
       <c r="H65" s="25"/>
       <c r="I65" s="15">
@@ -5276,7 +5337,7 @@
       <c r="A66" s="14" t="s">
         <v>263</v>
       </c>
-      <c r="B66" s="15" t="s">
+      <c r="B66" s="14" t="s">
         <v>264</v>
       </c>
       <c r="C66" s="15" t="s">
@@ -5288,7 +5349,7 @@
       <c r="E66" s="23" t="s">
         <v>343</v>
       </c>
-      <c r="F66" s="23"/>
+      <c r="F66" s="15"/>
       <c r="G66" s="25" t="s">
         <v>347</v>
       </c>
@@ -5304,7 +5365,7 @@
       <c r="A67" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="B67" s="15" t="s">
+      <c r="B67" s="14" t="s">
         <v>267</v>
       </c>
       <c r="C67" s="15" t="s">
@@ -5316,7 +5377,7 @@
       <c r="E67" s="23" t="s">
         <v>344</v>
       </c>
-      <c r="F67" s="23"/>
+      <c r="F67" s="15"/>
       <c r="G67" s="25" t="s">
         <v>347</v>
       </c>
@@ -5332,7 +5393,7 @@
       <c r="A68" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="B68" s="15" t="s">
+      <c r="B68" s="14" t="s">
         <v>270</v>
       </c>
       <c r="C68" s="15" t="s">
@@ -5344,7 +5405,9 @@
       <c r="E68" s="23" t="s">
         <v>345</v>
       </c>
-      <c r="F68" s="23"/>
+      <c r="F68" s="27" t="s">
+        <v>363</v>
+      </c>
       <c r="G68" s="25"/>
       <c r="H68" s="25"/>
       <c r="I68" s="15">
@@ -5358,7 +5421,7 @@
       <c r="A69" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="B69" s="15" t="s">
+      <c r="B69" s="14" t="s">
         <v>274</v>
       </c>
       <c r="C69" s="15" t="s">
@@ -5370,7 +5433,9 @@
       <c r="E69" s="23" t="s">
         <v>323</v>
       </c>
-      <c r="F69" s="23"/>
+      <c r="F69" s="27" t="s">
+        <v>360</v>
+      </c>
       <c r="G69" s="25" t="s">
         <v>352</v>
       </c>
@@ -5386,7 +5451,7 @@
       <c r="A70" s="17" t="s">
         <v>277</v>
       </c>
-      <c r="B70" s="18" t="s">
+      <c r="B70" s="17" t="s">
         <v>278</v>
       </c>
       <c r="C70" s="18" t="s">
@@ -5398,7 +5463,9 @@
       <c r="E70" s="24" t="s">
         <v>322</v>
       </c>
-      <c r="F70" s="24"/>
+      <c r="F70" s="18" t="s">
+        <v>362</v>
+      </c>
       <c r="G70" s="26"/>
       <c r="H70" s="26"/>
       <c r="I70" s="18">
